--- a/2018年01月学习内容.xlsx
+++ b/2018年01月学习内容.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>日有所诵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,62 +102,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月01日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月02日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月03日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月04日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月05日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月06日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月07日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月08日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月09日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年01月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月01日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月02日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月03日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月04日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月05日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月06日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月07日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月08日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月09日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月10日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月11日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年01月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√落叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√玉不琢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,12 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,12 +376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -641,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,46 +678,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
-        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -708,61 +725,61 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33" t="s">
-        <v>23</v>
+      <c r="A12" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>1</v>
@@ -770,61 +787,61 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="34" t="s">
-        <v>24</v>
+      <c r="A18" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>1</v>
@@ -832,61 +849,61 @@
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35" t="s">
-        <v>25</v>
+      <c r="A24" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>1</v>
@@ -894,61 +911,61 @@
       <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36" t="s">
-        <v>26</v>
+      <c r="A30" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>1</v>
@@ -956,61 +973,61 @@
       <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37" t="s">
-        <v>27</v>
+      <c r="A36" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>1</v>
@@ -1018,57 +1035,57 @@
       <c r="C36" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="37"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1093,58 +1110,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="3" width="20.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
-        <v>28</v>
+      <c r="A6" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -1152,73 +1169,73 @@
       <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33" t="s">
-        <v>29</v>
+      <c r="A12" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>1</v>
@@ -1226,73 +1243,73 @@
       <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="34" t="s">
-        <v>30</v>
+      <c r="A18" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>1</v>
@@ -1300,63 +1317,73 @@
       <c r="C18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>20</v>
+      <c r="D20" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="24" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35" t="s">
-        <v>31</v>
+      <c r="A24" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>1</v>
@@ -1364,61 +1391,61 @@
       <c r="C24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36" t="s">
-        <v>32</v>
+      <c r="A30" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>1</v>
@@ -1426,61 +1453,61 @@
       <c r="C30" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37" t="s">
-        <v>33</v>
+      <c r="A36" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>1</v>
@@ -1488,119 +1515,119 @@
       <c r="C36" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="37"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="37"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="38"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="30"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="38"/>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="30"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="38"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="30"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="38"/>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="30"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="38"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/2018年01月学习内容.xlsx
+++ b/2018年01月学习内容.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="44">
   <si>
     <t>日有所诵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,15 +162,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>√落叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√玉不琢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√落叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√玉不琢</t>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -658,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1342,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1354,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1366,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1378,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1391,7 +1411,9 @@
       <c r="C24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="37"/>
@@ -1401,7 +1423,9 @@
       <c r="C25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="37"/>
@@ -1411,7 +1435,9 @@
       <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="37"/>
@@ -1421,7 +1447,9 @@
       <c r="C27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="37"/>
@@ -1431,7 +1459,9 @@
       <c r="C28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="37"/>
@@ -1441,7 +1471,9 @@
       <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="31" t="s">
@@ -1473,7 +1505,9 @@
       <c r="C32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="31"/>
